--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-21.62123120386561</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.014576912481159</v>
+        <v>-8.791601902783722</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.901623608045157</v>
+        <v>-2.919193478458753</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.558706469773463</v>
+        <v>-5.337027598057356</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-21.4448305952325</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.291871886668917</v>
+        <v>-9.055346343530294</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.925713445273933</v>
+        <v>-2.976406841877096</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.49125492553289</v>
+        <v>-5.258290488767217</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-21.15955729140707</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.11684407333176</v>
+        <v>-9.879637730445367</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.791294771997932</v>
+        <v>-2.849542427340771</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.360816312320773</v>
+        <v>-5.124159846153733</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-20.77160827302938</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.88182732837381</v>
+        <v>-10.653589212934</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.718069522204158</v>
+        <v>-2.779276037989227</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.585781352050152</v>
+        <v>-5.346859917491493</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-20.27388698748022</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.68234309332831</v>
+        <v>-11.44020095227059</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.561524857125639</v>
+        <v>-2.62858363228096</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.128152998520459</v>
+        <v>-4.897977222260073</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-19.66481857398574</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.36980682324451</v>
+        <v>-12.12094833082898</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.542213710434093</v>
+        <v>-2.614653422057363</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.227863976963045</v>
+        <v>-5.008436981335716</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-18.95525090768164</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.89819907363373</v>
+        <v>-12.63696835503277</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.42181689350158</v>
+        <v>-2.490669314146218</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.768376516429827</v>
+        <v>-4.564594822698361</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-18.17478284629235</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.86619157653959</v>
+        <v>-13.5945655694823</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.173573739319612</v>
+        <v>-2.2277889653872</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.64871286845645</v>
+        <v>-4.473027256623329</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-17.35595094160367</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.63048093953103</v>
+        <v>-14.34842036710888</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.157588037549865</v>
+        <v>-2.204929804625546</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.24404287992154</v>
+        <v>-4.063172716163094</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-16.52243166158462</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.29791344609938</v>
+        <v>-15.02440214743289</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.986235977957354</v>
+        <v>-2.040333373299366</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.022612761959427</v>
+        <v>-3.855987023692779</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-15.70124716488755</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.95032908130828</v>
+        <v>-15.66761389374405</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.018809627427568</v>
+        <v>-2.051671307560301</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.509983644191642</v>
+        <v>-3.35037538024816</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.91196592231828</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.91600424661115</v>
+        <v>-16.62672981532321</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.826104021900202</v>
+        <v>-1.866598514589661</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.869966419773863</v>
+        <v>-2.707124357028475</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.1917032223519</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.53085806496713</v>
+        <v>-17.25242406043214</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.569743639956364</v>
+        <v>-1.612686393277226</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.511446798756037</v>
+        <v>-2.326347821179714</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.55600664765899</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.42999814722835</v>
+        <v>-18.14893258982218</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.425885416331478</v>
+        <v>-1.463813817663959</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.943149209305233</v>
+        <v>-1.759896246429594</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.00684428270444</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.32335143163353</v>
+        <v>-19.04244298186146</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.265897475605586</v>
+        <v>-1.307072768042814</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.534355145375179</v>
+        <v>-1.352215028241086</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.55066026976751</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.1186171831485</v>
+        <v>-19.83285148902214</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.040644405213689</v>
+        <v>-1.070717424841133</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.024868180289409</v>
+        <v>-0.8342573432167188</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-12.19249943604023</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.0768951973458</v>
+        <v>-20.78963698069548</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9585294817903827</v>
+        <v>-0.9834834110067125</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.657655270184676</v>
+        <v>-0.4676335867398638</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.93729391219953</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.91241978009907</v>
+        <v>-21.62463787133509</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8155222578502088</v>
+        <v>-0.8292560835311795</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.286148084747857</v>
+        <v>-0.09565507840074274</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.77282065140074</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.5555267879875</v>
+        <v>-22.26313638862323</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.5704081640474135</v>
+        <v>-0.5761556849949312</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08372256283374613</v>
+        <v>0.2866663491833419</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.68326250627172</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.17806578811157</v>
+        <v>-22.8908206637641</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2797197640525695</v>
+        <v>-0.2755040425375337</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4281941429024007</v>
+        <v>0.6217769327201623</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.65298917966202</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.8216441189023</v>
+        <v>-23.528677658213</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06719241202283026</v>
+        <v>-0.03992114520351486</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4765571095997368</v>
+        <v>0.6179147033818532</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-11.67742014579191</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.29068896050998</v>
+        <v>-24.01613027761614</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02619498414720178</v>
+        <v>0.06240829380741609</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7306132462434312</v>
+        <v>0.889488341227777</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.74310777143274</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.66584889843964</v>
+        <v>-24.38178520368271</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0008929904323294523</v>
+        <v>0.04038704042763284</v>
       </c>
       <c r="G24" t="n">
-        <v>0.694871259485519</v>
+        <v>0.8263572569249739</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.82664850860914</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.94827605534135</v>
+        <v>-24.66650351358172</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2897823172596727</v>
+        <v>0.3245292890016137</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6703755608686495</v>
+        <v>0.7997406052477448</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.91325959272393</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.95403666859171</v>
+        <v>-24.67654530986133</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2941551464088092</v>
+        <v>0.3387213452820448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5293976438689432</v>
+        <v>0.6616168102675348</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.98885028064421</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.91020363867761</v>
+        <v>-24.61228828751414</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1007687411336735</v>
+        <v>0.1522345836044987</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5163053410272171</v>
+        <v>0.6292395453399462</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-12.0481511952163</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.9953559763602</v>
+        <v>-24.72528795334107</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2534380845710412</v>
+        <v>0.2879886717703563</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2171724056994599</v>
+        <v>0.3281034876774049</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-12.07894665272634</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.04285485106998</v>
+        <v>-24.75376371202183</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2213619426088123</v>
+        <v>0.2660197876019399</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1159950893386009</v>
+        <v>0.2116998231116184</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-12.0690439802997</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.83199022150114</v>
+        <v>-24.55093775639781</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07785721116065285</v>
+        <v>0.1133504441645722</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06932645738603162</v>
+        <v>0.01714820288356907</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-12.01574804428722</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.36369164115544</v>
+        <v>-24.07446957907887</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08293702466324256</v>
+        <v>0.1197787648598597</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5685228724382049</v>
+        <v>-0.475174753176698</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-11.92514103724654</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.41125597737943</v>
+        <v>-24.12766360552481</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1347170824022692</v>
+        <v>0.1698568232294619</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.6900718120207897</v>
+        <v>-0.5847049587505783</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-11.80456371069299</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.01563277010816</v>
+        <v>-23.72993253749601</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06836529160040145</v>
+        <v>0.1001664952029541</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.19371961003915</v>
+        <v>-1.077433776198939</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-11.65578909495799</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.42791929554307</v>
+        <v>-23.15947471807632</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04866680350178788</v>
+        <v>-0.04155768305873062</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.268031520968787</v>
+        <v>-1.158750069148899</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-11.48615120555233</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.06822136726949</v>
+        <v>-22.79759037522817</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2437159312378228</v>
+        <v>-0.2400239018364561</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.345276107734971</v>
+        <v>-1.203551929473286</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-11.30207259193295</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.33129491721725</v>
+        <v>-22.08051185628399</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3570690892414871</v>
+        <v>-0.358273581102926</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.535035945122948</v>
+        <v>-1.413212067180687</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-11.11992907689609</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.53314885907711</v>
+        <v>-21.2845783973241</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2972765421633242</v>
+        <v>-0.2943045894182524</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.666024435054418</v>
+        <v>-1.52875163975892</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-10.94609113923223</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.15707245994853</v>
+        <v>-20.91296647346454</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3756077900653713</v>
+        <v>-0.3716931915156951</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.92408681636768</v>
+        <v>-1.783200545487866</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-10.77912302220505</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.50347851748388</v>
+        <v>-20.25704210109407</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2320768740115284</v>
+        <v>-0.2105662204425724</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.090948216085479</v>
+        <v>-1.940007056623219</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-10.62476726176106</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.15646703066393</v>
+        <v>-19.92838602285822</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4868007181001507</v>
+        <v>-0.4836192885096113</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.309013612217268</v>
+        <v>-2.160036298181268</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-10.4897077827149</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.60740203408762</v>
+        <v>-19.40957733814914</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2143760805695147</v>
+        <v>-0.1992413784844794</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.168886694902274</v>
+        <v>-2.006934908750123</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-10.38235230800938</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.03892115239703</v>
+        <v>-18.81883954162762</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02068312465083511</v>
+        <v>0.03703541090015097</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.213740924438028</v>
+        <v>-2.020354519162892</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-10.3020951814593</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.14398369934801</v>
+        <v>-17.92599685703327</v>
       </c>
       <c r="F43" t="n">
-        <v>0.03539887304493521</v>
+        <v>0.0482031452241433</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.127659033253679</v>
+        <v>-1.910929052011745</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-10.24883178435299</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.80474904041604</v>
+        <v>-17.58066118497706</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06764521494410651</v>
+        <v>0.0766789039048975</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.321123992345865</v>
+        <v>-2.104014334321521</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-10.22431643773429</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.25908804257858</v>
+        <v>-17.04125830789794</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04101547096403569</v>
+        <v>0.04605600755810023</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.379921524408057</v>
+        <v>-2.159106744679505</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-10.23883315116814</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.82782758697213</v>
+        <v>-16.63691562693408</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09186597520129974</v>
+        <v>0.08585660819694747</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.293211202687305</v>
+        <v>-2.100688889399723</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-10.29539933604882</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.19440888318658</v>
+        <v>-16.00836725980565</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09723381936640743</v>
+        <v>0.0991322032784577</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.624498833794342</v>
+        <v>-2.409693421070142</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.38638287855492</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.53480557371758</v>
+        <v>-15.35112056484816</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09657920422432112</v>
+        <v>0.08886783785054447</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.541742387531791</v>
+        <v>-2.338994985724821</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.51268757304018</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.96875986035555</v>
+        <v>-14.80718775098581</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2128650380645321</v>
+        <v>0.2189136819774095</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.771603948523976</v>
+        <v>-2.546874570245747</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.67310270266036</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.29099752684507</v>
+        <v>-14.13573590744504</v>
       </c>
       <c r="F50" t="n">
-        <v>0.35089718692485</v>
+        <v>0.3684932419441299</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.73499786977851</v>
+        <v>-2.498865095725138</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.87009831899252</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.49066505413036</v>
+        <v>-13.35045958299832</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3473753574604257</v>
+        <v>0.3540393396068642</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.822388991247031</v>
+        <v>-2.566565393719704</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-11.09621411761582</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.88532933994031</v>
+        <v>-12.74093433189892</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4288749426501705</v>
+        <v>0.4406841998134074</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.808262396480809</v>
+        <v>-2.571069145897257</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-11.33932292620796</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.2526438051139</v>
+        <v>-12.11313222603247</v>
       </c>
       <c r="F53" t="n">
-        <v>0.483142537929125</v>
+        <v>0.4943495491616425</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.848455766204907</v>
+        <v>-2.604218856692508</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.59419260671574</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.8727968227669</v>
+        <v>-11.72757699964648</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3834184671836975</v>
+        <v>0.3904359415068627</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.969716675124975</v>
+        <v>-2.704676096397072</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.85938028658632</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.37500128411879</v>
+        <v>-11.26760512390812</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1424939102902545</v>
+        <v>0.1295848996883125</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.446996575220098</v>
+        <v>-3.188292671067591</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-12.13129741289245</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.96400771331133</v>
+        <v>-10.85527613821079</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2066461942147122</v>
+        <v>0.2183768975608987</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.531363374732181</v>
+        <v>-3.262656951208595</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.39720595337354</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.19924702741758</v>
+        <v>-10.09021432935169</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1625775028494622</v>
+        <v>0.1776598357231307</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.902778914049108</v>
+        <v>-3.617000127619911</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.65293871083648</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.904342905907704</v>
+        <v>-9.789929271373861</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.006483403745746483</v>
+        <v>-0.001181021094847426</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.924158644589646</v>
+        <v>-3.64437613286196</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.8960766174837</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.325938058663089</v>
+        <v>-9.22006060558205</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06384844712000595</v>
+        <v>0.08555548523158778</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.211272845908699</v>
+        <v>-3.925441690268136</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-13.1336318047774</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.991757028628031</v>
+        <v>-8.885434437250373</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.06092119896164348</v>
+        <v>-0.05107578722466547</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.129066276365501</v>
+        <v>-3.849584887603175</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.36527297542939</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.453414628079097</v>
+        <v>-8.349867604903885</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.08600605120639063</v>
+        <v>-0.07486450148808174</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.523995591586168</v>
+        <v>-4.253574076390316</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.58315040836283</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.968096054039153</v>
+        <v>-7.864103892567322</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.04763251157729152</v>
+        <v>-0.02911999535909086</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.508978720226708</v>
+        <v>-4.214794675373123</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.79148641127328</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.502913441769784</v>
+        <v>-7.385842069759069</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.06157581410372978</v>
+        <v>-0.05576283164200341</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.500612738710846</v>
+        <v>-4.214572106224814</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.99432506877223</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.171285410788863</v>
+        <v>-7.055929130450414</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2251510458082553</v>
+        <v>-0.2247059075116366</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.708138831055045</v>
+        <v>-4.440859468541207</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-14.19553512075464</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.791451520744705</v>
+        <v>-6.669313427534243</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1761465562716746</v>
+        <v>-0.1785686322973939</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.971307210476581</v>
+        <v>-4.713781613579829</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.38740371843278</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.542737043660436</v>
+        <v>-6.418504181995297</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.281801440204404</v>
+        <v>-0.2852839927603031</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.94687697337392</v>
+        <v>-4.694418097676916</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.56308421863157</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.391730422683967</v>
+        <v>-6.269657790987713</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3559562434999404</v>
+        <v>-0.347708092709653</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.039387185253556</v>
+        <v>-4.788329185960618</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.71599457531243</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.11808820098905</v>
+        <v>-5.995779907841646</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3152784585706975</v>
+        <v>-0.3101200912510574</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.045959521280103</v>
+        <v>-4.803175857383135</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.84807407143147</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.983420773959057</v>
+        <v>-5.856163590337479</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.574152562660147</v>
+        <v>-0.5619374441088166</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.109025144068697</v>
+        <v>-4.8836149660427</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.95278282495024</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.789301199724784</v>
+        <v>-5.649043359381372</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5210894592426313</v>
+        <v>-0.5145694924274518</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.94885391110302</v>
+        <v>-4.727698731500584</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-15.01329097909952</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.678147548598529</v>
+        <v>-5.529078588442637</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5933196940204341</v>
+        <v>-0.590452479698096</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.89977086774939</v>
+        <v>-4.695609497235513</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-15.02507163489499</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.69112202071468</v>
+        <v>-5.535375986109507</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7084926821190982</v>
+        <v>-0.701671592338559</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.769423900657165</v>
+        <v>-4.585791260999115</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.98374124726821</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.738463787790361</v>
+        <v>-5.580177846433894</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7415114698859314</v>
+        <v>-0.7366542255316511</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.571167158724907</v>
+        <v>-4.380700336983476</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.89259351806465</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.973104039319776</v>
+        <v>-5.822843679605286</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.628263050305001</v>
+        <v>-0.6303054495483101</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.430424903176352</v>
+        <v>-4.255249891154057</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.74713005850777</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.183602084409048</v>
+        <v>-6.035371031635026</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.97261679964808</v>
+        <v>-0.9637925875327565</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.259963120177078</v>
+        <v>-4.08248386285464</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.54341768651313</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.670098965704747</v>
+        <v>-6.537500122523745</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8974407967308888</v>
+        <v>-0.8915492604521121</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.086791230489568</v>
+        <v>-3.918633692790438</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.28327929859604</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.120853860242534</v>
+        <v>-6.994146553340308</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9562383287930807</v>
+        <v>-0.9520749764894118</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.004139522649751</v>
+        <v>-3.844491981797743</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.97895841099588</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.705110966857402</v>
+        <v>-7.568479694401148</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.014499076438762</v>
+        <v>-1.010152431895309</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.634714013364766</v>
+        <v>-3.467355106138982</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.63977447666539</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.126958056720657</v>
+        <v>-7.989894738270626</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9842034876630076</v>
+        <v>-0.9729833841276483</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.454249710994414</v>
+        <v>-3.26731781102025</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.26772020006417</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.596146913659593</v>
+        <v>-8.46489657767129</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.179658476787136</v>
+        <v>-1.177786277480769</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.083672079059358</v>
+        <v>-2.892589919084366</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.8708288896808</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.501990254975778</v>
+        <v>-9.390417650158589</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.110963163776599</v>
+        <v>-1.097897045540557</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.078055481140258</v>
+        <v>-2.88229936905077</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.45633095696728</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.28877219424931</v>
+        <v>-10.19300199896208</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.198354285245121</v>
+        <v>-1.190511995842927</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.882495753593395</v>
+        <v>-2.693390531347504</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.0428940587351</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.10455358431726</v>
+        <v>-11.02332893748719</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.310188736119145</v>
+        <v>-1.290785943307707</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.528911930746899</v>
+        <v>-2.33178112685903</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.63828736520012</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.30382161692221</v>
+        <v>-12.22881581394196</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.391099167681012</v>
+        <v>-1.375584788813567</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.38608799904651</v>
+        <v>-2.203646758947057</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.24518466935518</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.18082261507807</v>
+        <v>-13.1033947360721</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.474340029148706</v>
+        <v>-1.465319432490757</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.050911953995481</v>
+        <v>-1.86446446922646</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.87113402096005</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.34771338275543</v>
+        <v>-14.28917769675007</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.654581762370749</v>
+        <v>-1.652644101550174</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.79976230858265</v>
+        <v>-1.616941391700787</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.52805789486453</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.41910889350524</v>
+        <v>-15.37270977223417</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.704253959352258</v>
+        <v>-1.704371790077833</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.389240060677487</v>
+        <v>-1.204782605940408</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.22680735174483</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.80105382766079</v>
+        <v>-16.75557116758864</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.684262012912942</v>
+        <v>-1.70002514553438</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.071961193611097</v>
+        <v>-0.884675801460206</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.96810499600487</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.46073887430073</v>
+        <v>-18.4306396700676</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.924780708418292</v>
+        <v>-1.941551948358543</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.8729581904168612</v>
+        <v>-0.6811952306940994</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.753806148635912</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.04217122685566</v>
+        <v>-20.02317429543232</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.133288723475621</v>
+        <v>-2.153162839189361</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.5751868545846435</v>
+        <v>-0.3775192662802633</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.583804167397123</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.83899814576267</v>
+        <v>-21.85075503371454</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.321569130642484</v>
+        <v>-2.346261213801979</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7177358479253568</v>
+        <v>-0.5212072899682069</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.469004431184787</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.5243179213667</v>
+        <v>-23.55147135746044</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.416265757096688</v>
+        <v>-2.436820672558198</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.5277534413890699</v>
+        <v>-0.3406120645694375</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.409382476335111</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.60312685887881</v>
+        <v>-25.62101094456061</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.575572898074811</v>
+        <v>-2.619183358840601</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.522870012429106</v>
+        <v>-0.3408870029291137</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.394799500153287</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.82339812859576</v>
+        <v>-27.85527788601537</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.448839406566903</v>
+        <v>-2.492803359509419</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.6446938903713672</v>
+        <v>-0.4665338333011588</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.422457713780693</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.10615895977628</v>
+        <v>-30.14376005353772</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.924482768806811</v>
+        <v>-2.983201747051952</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9991679898111004</v>
+        <v>-0.8295964834050644</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.489216325346112</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.29982667011885</v>
+        <v>-32.32631239876766</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.988975452605153</v>
+        <v>-3.050731845109576</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.244740314213356</v>
+        <v>-1.070625778721241</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.59097513116758</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.520660908858</v>
+        <v>-34.54934614438422</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.33611786245352</v>
+        <v>-3.415313202343121</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.441661641255758</v>
+        <v>-1.283558992139074</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.720896114235201</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.0385856836816</v>
+        <v>-37.06858014949199</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.599652826354624</v>
+        <v>-3.685773994447498</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.855522426385561</v>
+        <v>-1.695770147110819</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.86035021181775</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.55165321415092</v>
+        <v>-39.60212404160577</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.538760525837756</v>
+        <v>-3.617117958345487</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.312941303069786</v>
+        <v>-2.163034435532023</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.01030418600429</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.11592474103423</v>
+        <v>-42.17178959725987</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.712613215273037</v>
+        <v>-3.792947585509868</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.648431563389017</v>
+        <v>-2.511302783424778</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-10.15189573255449</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.40637075398283</v>
+        <v>-44.45153919878679</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.965661244597918</v>
+        <v>-4.055382795972267</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.217017183502338</v>
+        <v>-3.094224475149789</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.30571055052992</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.74766727116871</v>
+        <v>-46.7933463157835</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.113866112766257</v>
+        <v>-4.208876954488663</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.537006157256965</v>
+        <v>-3.409316927641611</v>
       </c>
     </row>
   </sheetData>
